--- a/data/trans_bre/P36BPD07_R-Nacimiento-trans_bre.xlsx
+++ b/data/trans_bre/P36BPD07_R-Nacimiento-trans_bre.xlsx
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>1.825034498245393</v>
+        <v>-1.825034498245393</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>4.928357910385895</v>
+        <v>-4.928357910385883</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.02144015331761147</v>
+        <v>-0.1226688733020027</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.0690179480302381</v>
+        <v>-0.1723618076678144</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1293148495080273</v>
+        <v>-3.547360694988012</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.70123810484984</v>
+        <v>-7.169668158079368</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.001650963253606961</v>
+        <v>-0.2261906786358746</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.03710164750436603</v>
+        <v>-0.2368151052189612</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.547360694988014</v>
+        <v>-0.1293148495080264</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.169668158079381</v>
+        <v>-2.701238104849839</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.04232230150692357</v>
+        <v>-0.007662453079410341</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.1025863827748945</v>
+        <v>-0.09884268419906002</v>
       </c>
     </row>
     <row r="7">
@@ -653,16 +653,16 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>10.46123762052478</v>
+        <v>-10.46123762052478</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>3.271685166381277</v>
+        <v>-3.271685166381297</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.1429749972411515</v>
+        <v>-0.3898835323409561</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.04527159673493032</v>
+        <v>-0.117974845890585</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.646268983190478</v>
+        <v>-18.61359583637049</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.388507430430827</v>
+        <v>-12.1827764594399</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0213667535684937</v>
+        <v>-0.5965487773543272</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.05860347611361082</v>
+        <v>-0.3685613286109966</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>18.61359583637049</v>
+        <v>-1.646268983190478</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.18277645943991</v>
+        <v>4.38850743043082</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2786783562777577</v>
+        <v>-0.0715682359976134</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1844921164725474</v>
+        <v>0.1915104981501149</v>
       </c>
     </row>
     <row r="10">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>2.342509076988286</v>
+        <v>-2.34250907698828</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>4.792747280971266</v>
+        <v>-4.79274728097126</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.02775882050728172</v>
+        <v>-0.1500446334796702</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.0670504449462196</v>
+        <v>-0.1680470145592164</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5974303384284984</v>
+        <v>-4.039656698150533</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.72559326959835</v>
+        <v>-6.888281509196433</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.007025054784592508</v>
+        <v>-0.2424850914920753</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.03741417563877668</v>
+        <v>-0.2307815991185391</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.039656698150532</v>
+        <v>-0.5974303384285039</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.888281509196438</v>
+        <v>-2.725593269598352</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.04861989420702283</v>
+        <v>-0.03907067141005197</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.09766795168485064</v>
+        <v>-0.1003268808081627</v>
       </c>
     </row>
     <row r="13">
